--- a/Excel reports/clb_windowed_dataset.xlsx
+++ b/Excel reports/clb_windowed_dataset.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2751"/>
+  <dimension ref="A1:J2801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88692,16 +88692,1620 @@
         <v>17.15999984741211</v>
       </c>
       <c r="G2751" t="n">
-        <v>19.80100255025617</v>
+        <v>26.65721939679423</v>
       </c>
       <c r="H2751" t="n">
-        <v>22.44277364656489</v>
+        <v>26.23387145673391</v>
       </c>
       <c r="I2751" t="n">
-        <v>24.73875300990211</v>
+        <v>27.02402271755486</v>
       </c>
       <c r="J2751" t="n">
         <v>110</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B2752" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C2752" t="n">
+        <v>26.84000015258789</v>
+      </c>
+      <c r="D2752" t="n">
+        <v>28.23999977111816</v>
+      </c>
+      <c r="E2752" t="n">
+        <v>24.6299991607666</v>
+      </c>
+      <c r="F2752" t="n">
+        <v>28.13999938964844</v>
+      </c>
+      <c r="G2752" t="n">
+        <v>26.65721939679423</v>
+      </c>
+      <c r="H2752" t="n">
+        <v>26.23387145673391</v>
+      </c>
+      <c r="I2752" t="n">
+        <v>27.02402271755486</v>
+      </c>
+      <c r="J2752" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B2753" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C2753" t="n">
+        <v>27.77000045776367</v>
+      </c>
+      <c r="D2753" t="n">
+        <v>28.63999938964844</v>
+      </c>
+      <c r="E2753" t="n">
+        <v>25.47999954223633</v>
+      </c>
+      <c r="F2753" t="n">
+        <v>26.28000068664551</v>
+      </c>
+      <c r="G2753" t="n">
+        <v>26.54944262246602</v>
+      </c>
+      <c r="H2753" t="n">
+        <v>26.24096826133569</v>
+      </c>
+      <c r="I2753" t="n">
+        <v>26.96450095508211</v>
+      </c>
+      <c r="J2753" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B2754" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="C2754" t="n">
+        <v>26.98999977111816</v>
+      </c>
+      <c r="D2754" t="n">
+        <v>26.98999977111816</v>
+      </c>
+      <c r="E2754" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2754" t="n">
+        <v>26.63999938964844</v>
+      </c>
+      <c r="G2754" t="n">
+        <v>26.57531598451814</v>
+      </c>
+      <c r="H2754" t="n">
+        <v>26.3023576656915</v>
+      </c>
+      <c r="I2754" t="n">
+        <v>26.93854082984742</v>
+      </c>
+      <c r="J2754" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B2755" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="C2755" t="n">
+        <v>26.79000091552734</v>
+      </c>
+      <c r="D2755" t="n">
+        <v>28.53000068664551</v>
+      </c>
+      <c r="E2755" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="F2755" t="n">
+        <v>27.13999938964844</v>
+      </c>
+      <c r="G2755" t="n">
+        <v>26.73665410026965</v>
+      </c>
+      <c r="H2755" t="n">
+        <v>26.43122562322334</v>
+      </c>
+      <c r="I2755" t="n">
+        <v>26.9546575146315</v>
+      </c>
+      <c r="J2755" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B2756" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="C2756" t="n">
+        <v>27.42000007629395</v>
+      </c>
+      <c r="D2756" t="n">
+        <v>35.83000183105469</v>
+      </c>
+      <c r="E2756" t="n">
+        <v>27.30999946594238</v>
+      </c>
+      <c r="F2756" t="n">
+        <v>31.78000068664551</v>
+      </c>
+      <c r="G2756" t="n">
+        <v>28.17761026780561</v>
+      </c>
+      <c r="H2756" t="n">
+        <v>27.25411409451906</v>
+      </c>
+      <c r="I2756" t="n">
+        <v>27.34068496839262</v>
+      </c>
+      <c r="J2756" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B2757" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="C2757" t="n">
+        <v>31.48999977111816</v>
+      </c>
+      <c r="D2757" t="n">
+        <v>32.45999908447266</v>
+      </c>
+      <c r="E2757" t="n">
+        <v>28.68000030517578</v>
+      </c>
+      <c r="F2757" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2757" t="n">
+        <v>28.41257876271829</v>
+      </c>
+      <c r="H2757" t="n">
+        <v>27.52271192613151</v>
+      </c>
+      <c r="I2757" t="n">
+        <v>27.47343017092121</v>
+      </c>
+      <c r="J2757" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B2758" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C2758" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D2758" t="n">
+        <v>32.15999984741211</v>
+      </c>
+      <c r="E2758" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="F2758" t="n">
+        <v>31.97999954223633</v>
+      </c>
+      <c r="G2758" t="n">
+        <v>29.43184184258059</v>
+      </c>
+      <c r="H2758" t="n">
+        <v>28.20844848245533</v>
+      </c>
+      <c r="I2758" t="n">
+        <v>27.83395572062642</v>
+      </c>
+      <c r="J2758" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B2759" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C2759" t="n">
+        <v>31.29999923706055</v>
+      </c>
+      <c r="D2759" t="n">
+        <v>32.90000152587891</v>
+      </c>
+      <c r="E2759" t="n">
+        <v>29.6200008392334</v>
+      </c>
+      <c r="F2759" t="n">
+        <v>32.43000030517578</v>
+      </c>
+      <c r="G2759" t="n">
+        <v>30.28845854617921</v>
+      </c>
+      <c r="H2759" t="n">
+        <v>28.85791799364309</v>
+      </c>
+      <c r="I2759" t="n">
+        <v>28.20163928739037</v>
+      </c>
+      <c r="J2759" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B2760" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="C2760" t="n">
+        <v>32.65999984741211</v>
+      </c>
+      <c r="D2760" t="n">
+        <v>34.08000183105469</v>
+      </c>
+      <c r="E2760" t="n">
+        <v>30.63999938964844</v>
+      </c>
+      <c r="F2760" t="n">
+        <v>33.61999893188477</v>
+      </c>
+      <c r="G2760" t="n">
+        <v>31.24032722780937</v>
+      </c>
+      <c r="H2760" t="n">
+        <v>29.59054583029565</v>
+      </c>
+      <c r="I2760" t="n">
+        <v>28.63510805894992</v>
+      </c>
+      <c r="J2760" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B2761" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="C2761" t="n">
+        <v>33.36000061035156</v>
+      </c>
+      <c r="D2761" t="n">
+        <v>34.06000137329102</v>
+      </c>
+      <c r="E2761" t="n">
+        <v>31.29000091552734</v>
+      </c>
+      <c r="F2761" t="n">
+        <v>33.61000061035156</v>
+      </c>
+      <c r="G2761" t="n">
+        <v>31.91737676567857</v>
+      </c>
+      <c r="H2761" t="n">
+        <v>30.20892348876579</v>
+      </c>
+      <c r="I2761" t="n">
+        <v>29.03309946306205</v>
+      </c>
+      <c r="J2761" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B2762" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C2762" t="n">
+        <v>32.65999984741211</v>
+      </c>
+      <c r="D2762" t="n">
+        <v>34.02000045776367</v>
+      </c>
+      <c r="E2762" t="n">
+        <v>28.72999954223633</v>
+      </c>
+      <c r="F2762" t="n">
+        <v>29.17000007629395</v>
+      </c>
+      <c r="G2762" t="n">
+        <v>31.13241199728296</v>
+      </c>
+      <c r="H2762" t="n">
+        <v>30.04908911761628</v>
+      </c>
+      <c r="I2762" t="n">
+        <v>29.0440515121206</v>
+      </c>
+      <c r="J2762" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B2763" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="C2763" t="n">
+        <v>28.32999992370605</v>
+      </c>
+      <c r="D2763" t="n">
+        <v>28.32999992370605</v>
+      </c>
+      <c r="E2763" t="n">
+        <v>24.76000022888184</v>
+      </c>
+      <c r="F2763" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2763" t="n">
+        <v>29.66600856948783</v>
+      </c>
+      <c r="H2763" t="n">
+        <v>29.4261523302907</v>
+      </c>
+      <c r="I2763" t="n">
+        <v>28.80052739115095</v>
+      </c>
+      <c r="J2763" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B2764" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="C2764" t="n">
+        <v>25.78000068664551</v>
+      </c>
+      <c r="D2764" t="n">
+        <v>27.54000091552734</v>
+      </c>
+      <c r="E2764" t="n">
+        <v>24.6200008392334</v>
+      </c>
+      <c r="F2764" t="n">
+        <v>27.46999931335449</v>
+      </c>
+      <c r="G2764" t="n">
+        <v>29.03857735344973</v>
+      </c>
+      <c r="H2764" t="n">
+        <v>29.12520571230051</v>
+      </c>
+      <c r="I2764" t="n">
+        <v>28.69408514492724</v>
+      </c>
+      <c r="J2764" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B2765" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C2765" t="n">
+        <v>26.73999977111816</v>
+      </c>
+      <c r="D2765" t="n">
+        <v>26.73999977111816</v>
+      </c>
+      <c r="E2765" t="n">
+        <v>21.80999946594238</v>
+      </c>
+      <c r="F2765" t="n">
+        <v>23.36000061035156</v>
+      </c>
+      <c r="G2765" t="n">
+        <v>27.41612685542168</v>
+      </c>
+      <c r="H2765" t="n">
+        <v>28.23825108123144</v>
+      </c>
+      <c r="I2765" t="n">
+        <v>28.26735838216118</v>
+      </c>
+      <c r="J2765" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B2766" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="C2766" t="n">
+        <v>23.54999923706055</v>
+      </c>
+      <c r="D2766" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E2766" t="n">
+        <v>23.54999923706055</v>
+      </c>
+      <c r="F2766" t="n">
+        <v>24.52000045776367</v>
+      </c>
+      <c r="G2766" t="n">
+        <v>26.58866217037654</v>
+      </c>
+      <c r="H2766" t="n">
+        <v>27.66621252377486</v>
+      </c>
+      <c r="I2766" t="n">
+        <v>27.96756974820938</v>
+      </c>
+      <c r="J2766" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B2767" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="C2767" t="n">
+        <v>24.84000015258789</v>
+      </c>
+      <c r="D2767" t="n">
+        <v>28.04999923706055</v>
+      </c>
+      <c r="E2767" t="n">
+        <v>24.47999954223633</v>
+      </c>
+      <c r="F2767" t="n">
+        <v>27.57999992370605</v>
+      </c>
+      <c r="G2767" t="n">
+        <v>26.87190152847068</v>
+      </c>
+      <c r="H2767" t="n">
+        <v>27.6529490468412</v>
+      </c>
+      <c r="I2767" t="n">
+        <v>27.93656416224912</v>
+      </c>
+      <c r="J2767" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B2768" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="C2768" t="n">
+        <v>28.09000015258789</v>
+      </c>
+      <c r="D2768" t="n">
+        <v>29.8799991607666</v>
+      </c>
+      <c r="E2768" t="n">
+        <v>27.45000076293945</v>
+      </c>
+      <c r="F2768" t="n">
+        <v>29.78000068664551</v>
+      </c>
+      <c r="G2768" t="n">
+        <v>27.70278700223492</v>
+      </c>
+      <c r="H2768" t="n">
+        <v>27.98018776065725</v>
+      </c>
+      <c r="I2768" t="n">
+        <v>28.08403908420083</v>
+      </c>
+      <c r="J2768" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B2769" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="C2769" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2769" t="n">
+        <v>31.42000007629395</v>
+      </c>
+      <c r="E2769" t="n">
+        <v>25.19000053405762</v>
+      </c>
+      <c r="F2769" t="n">
+        <v>26.07999992370605</v>
+      </c>
+      <c r="G2769" t="n">
+        <v>27.23913355122667</v>
+      </c>
+      <c r="H2769" t="n">
+        <v>27.68785117035706</v>
+      </c>
+      <c r="I2769" t="n">
+        <v>27.92371595136125</v>
+      </c>
+      <c r="J2769" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B2770" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C2770" t="n">
+        <v>25.19000053405762</v>
+      </c>
+      <c r="D2770" t="n">
+        <v>25.34000015258789</v>
+      </c>
+      <c r="E2770" t="n">
+        <v>20.04000091552734</v>
+      </c>
+      <c r="F2770" t="n">
+        <v>20.09000015258789</v>
+      </c>
+      <c r="G2770" t="n">
+        <v>25.19652400875845</v>
+      </c>
+      <c r="H2770" t="n">
+        <v>26.51895101377719</v>
+      </c>
+      <c r="I2770" t="n">
+        <v>27.29701868745938</v>
+      </c>
+      <c r="J2770" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B2771" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="C2771" t="n">
+        <v>20.72999954223633</v>
+      </c>
+      <c r="D2771" t="n">
+        <v>21.65999984741211</v>
+      </c>
+      <c r="E2771" t="n">
+        <v>18.40999984741211</v>
+      </c>
+      <c r="F2771" t="n">
+        <v>19.1299991607666</v>
+      </c>
+      <c r="G2771" t="n">
+        <v>23.46323119504649</v>
+      </c>
+      <c r="H2771" t="n">
+        <v>25.3821891902371</v>
+      </c>
+      <c r="I2771" t="n">
+        <v>26.64365712532395</v>
+      </c>
+      <c r="J2771" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B2772" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="C2772" t="n">
+        <v>19.55999946594238</v>
+      </c>
+      <c r="D2772" t="n">
+        <v>20.92000007629395</v>
+      </c>
+      <c r="E2772" t="n">
+        <v>18.64999961853027</v>
+      </c>
+      <c r="F2772" t="n">
+        <v>19.82999992370605</v>
+      </c>
+      <c r="G2772" t="n">
+        <v>22.42516511752065</v>
+      </c>
+      <c r="H2772" t="n">
+        <v>24.5280062261554</v>
+      </c>
+      <c r="I2772" t="n">
+        <v>26.09856454919452</v>
+      </c>
+      <c r="J2772" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B2773" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C2773" t="n">
+        <v>19.20000076293945</v>
+      </c>
+      <c r="D2773" t="n">
+        <v>19.57999992370605</v>
+      </c>
+      <c r="E2773" t="n">
+        <v>17.35000038146973</v>
+      </c>
+      <c r="F2773" t="n">
+        <v>18.72999954223633</v>
+      </c>
+      <c r="G2773" t="n">
+        <v>21.36940352458227</v>
+      </c>
+      <c r="H2773" t="n">
+        <v>23.63600519786016</v>
+      </c>
+      <c r="I2773" t="n">
+        <v>25.50907934863787</v>
+      </c>
+      <c r="J2773" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B2774" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="C2774" t="n">
+        <v>18.19000053405762</v>
+      </c>
+      <c r="D2774" t="n">
+        <v>18.54999923706055</v>
+      </c>
+      <c r="E2774" t="n">
+        <v>15.21000003814697</v>
+      </c>
+      <c r="F2774" t="n">
+        <v>15.88000011444092</v>
+      </c>
+      <c r="G2774" t="n">
+        <v>19.80100255025617</v>
+      </c>
+      <c r="H2774" t="n">
+        <v>22.44277364656489</v>
+      </c>
+      <c r="I2774" t="n">
+        <v>24.73875300990211</v>
+      </c>
+      <c r="J2774" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B2775" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="C2775" t="n">
+        <v>16.46999931335449</v>
+      </c>
+      <c r="D2775" t="n">
+        <v>17.77000045776367</v>
+      </c>
+      <c r="E2775" t="n">
+        <v>16.36000061035156</v>
+      </c>
+      <c r="F2775" t="n">
+        <v>17.30999946594238</v>
+      </c>
+      <c r="G2775" t="n">
+        <v>19.08928738330938</v>
+      </c>
+      <c r="H2775" t="n">
+        <v>21.65311608031528</v>
+      </c>
+      <c r="I2775" t="n">
+        <v>24.14445272638534</v>
+      </c>
+      <c r="J2775" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C2776" t="n">
+        <v>17.55999946594238</v>
+      </c>
+      <c r="D2776" t="n">
+        <v>19.42000007629395</v>
+      </c>
+      <c r="E2776" t="n">
+        <v>15.88000011444092</v>
+      </c>
+      <c r="F2776" t="n">
+        <v>16.3700008392334</v>
+      </c>
+      <c r="G2776" t="n">
+        <v>26.54944262246602</v>
+      </c>
+      <c r="H2776" t="n">
+        <v>26.24096826133569</v>
+      </c>
+      <c r="I2776" t="n">
+        <v>26.96450095508211</v>
+      </c>
+      <c r="J2776" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B2777" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C2777" t="n">
+        <v>27.77000045776367</v>
+      </c>
+      <c r="D2777" t="n">
+        <v>28.63999938964844</v>
+      </c>
+      <c r="E2777" t="n">
+        <v>25.47999954223633</v>
+      </c>
+      <c r="F2777" t="n">
+        <v>26.28000068664551</v>
+      </c>
+      <c r="G2777" t="n">
+        <v>26.54944262246602</v>
+      </c>
+      <c r="H2777" t="n">
+        <v>26.24096826133569</v>
+      </c>
+      <c r="I2777" t="n">
+        <v>26.96450095508211</v>
+      </c>
+      <c r="J2777" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B2778" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="C2778" t="n">
+        <v>26.98999977111816</v>
+      </c>
+      <c r="D2778" t="n">
+        <v>26.98999977111816</v>
+      </c>
+      <c r="E2778" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2778" t="n">
+        <v>26.63999938964844</v>
+      </c>
+      <c r="G2778" t="n">
+        <v>26.57531598451814</v>
+      </c>
+      <c r="H2778" t="n">
+        <v>26.3023576656915</v>
+      </c>
+      <c r="I2778" t="n">
+        <v>26.93854082984742</v>
+      </c>
+      <c r="J2778" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B2779" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="C2779" t="n">
+        <v>26.79000091552734</v>
+      </c>
+      <c r="D2779" t="n">
+        <v>28.53000068664551</v>
+      </c>
+      <c r="E2779" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="F2779" t="n">
+        <v>27.13999938964844</v>
+      </c>
+      <c r="G2779" t="n">
+        <v>26.73665410026965</v>
+      </c>
+      <c r="H2779" t="n">
+        <v>26.43122562322334</v>
+      </c>
+      <c r="I2779" t="n">
+        <v>26.9546575146315</v>
+      </c>
+      <c r="J2779" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B2780" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="C2780" t="n">
+        <v>27.42000007629395</v>
+      </c>
+      <c r="D2780" t="n">
+        <v>35.83000183105469</v>
+      </c>
+      <c r="E2780" t="n">
+        <v>27.30999946594238</v>
+      </c>
+      <c r="F2780" t="n">
+        <v>31.78000068664551</v>
+      </c>
+      <c r="G2780" t="n">
+        <v>28.17761026780561</v>
+      </c>
+      <c r="H2780" t="n">
+        <v>27.25411409451906</v>
+      </c>
+      <c r="I2780" t="n">
+        <v>27.34068496839262</v>
+      </c>
+      <c r="J2780" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B2781" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="C2781" t="n">
+        <v>31.48999977111816</v>
+      </c>
+      <c r="D2781" t="n">
+        <v>32.45999908447266</v>
+      </c>
+      <c r="E2781" t="n">
+        <v>28.68000030517578</v>
+      </c>
+      <c r="F2781" t="n">
+        <v>29</v>
+      </c>
+      <c r="G2781" t="n">
+        <v>28.41257876271829</v>
+      </c>
+      <c r="H2781" t="n">
+        <v>27.52271192613151</v>
+      </c>
+      <c r="I2781" t="n">
+        <v>27.47343017092121</v>
+      </c>
+      <c r="J2781" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B2782" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C2782" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D2782" t="n">
+        <v>32.15999984741211</v>
+      </c>
+      <c r="E2782" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="F2782" t="n">
+        <v>31.97999954223633</v>
+      </c>
+      <c r="G2782" t="n">
+        <v>29.43184184258059</v>
+      </c>
+      <c r="H2782" t="n">
+        <v>28.20844848245533</v>
+      </c>
+      <c r="I2782" t="n">
+        <v>27.83395572062642</v>
+      </c>
+      <c r="J2782" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B2783" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C2783" t="n">
+        <v>31.29999923706055</v>
+      </c>
+      <c r="D2783" t="n">
+        <v>32.90000152587891</v>
+      </c>
+      <c r="E2783" t="n">
+        <v>29.6200008392334</v>
+      </c>
+      <c r="F2783" t="n">
+        <v>32.43000030517578</v>
+      </c>
+      <c r="G2783" t="n">
+        <v>30.28845854617921</v>
+      </c>
+      <c r="H2783" t="n">
+        <v>28.85791799364309</v>
+      </c>
+      <c r="I2783" t="n">
+        <v>28.20163928739037</v>
+      </c>
+      <c r="J2783" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B2784" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="C2784" t="n">
+        <v>32.65999984741211</v>
+      </c>
+      <c r="D2784" t="n">
+        <v>34.08000183105469</v>
+      </c>
+      <c r="E2784" t="n">
+        <v>30.63999938964844</v>
+      </c>
+      <c r="F2784" t="n">
+        <v>33.61999893188477</v>
+      </c>
+      <c r="G2784" t="n">
+        <v>31.24032722780937</v>
+      </c>
+      <c r="H2784" t="n">
+        <v>29.59054583029565</v>
+      </c>
+      <c r="I2784" t="n">
+        <v>28.63510805894992</v>
+      </c>
+      <c r="J2784" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B2785" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="C2785" t="n">
+        <v>33.36000061035156</v>
+      </c>
+      <c r="D2785" t="n">
+        <v>34.06000137329102</v>
+      </c>
+      <c r="E2785" t="n">
+        <v>31.29000091552734</v>
+      </c>
+      <c r="F2785" t="n">
+        <v>33.61000061035156</v>
+      </c>
+      <c r="G2785" t="n">
+        <v>31.91737676567857</v>
+      </c>
+      <c r="H2785" t="n">
+        <v>30.20892348876579</v>
+      </c>
+      <c r="I2785" t="n">
+        <v>29.03309946306205</v>
+      </c>
+      <c r="J2785" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B2786" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C2786" t="n">
+        <v>32.65999984741211</v>
+      </c>
+      <c r="D2786" t="n">
+        <v>34.02000045776367</v>
+      </c>
+      <c r="E2786" t="n">
+        <v>28.72999954223633</v>
+      </c>
+      <c r="F2786" t="n">
+        <v>29.17000007629395</v>
+      </c>
+      <c r="G2786" t="n">
+        <v>31.13241199728296</v>
+      </c>
+      <c r="H2786" t="n">
+        <v>30.04908911761628</v>
+      </c>
+      <c r="I2786" t="n">
+        <v>29.0440515121206</v>
+      </c>
+      <c r="J2786" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B2787" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="C2787" t="n">
+        <v>28.32999992370605</v>
+      </c>
+      <c r="D2787" t="n">
+        <v>28.32999992370605</v>
+      </c>
+      <c r="E2787" t="n">
+        <v>24.76000022888184</v>
+      </c>
+      <c r="F2787" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2787" t="n">
+        <v>29.66600856948783</v>
+      </c>
+      <c r="H2787" t="n">
+        <v>29.4261523302907</v>
+      </c>
+      <c r="I2787" t="n">
+        <v>28.80052739115095</v>
+      </c>
+      <c r="J2787" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B2788" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="C2788" t="n">
+        <v>25.78000068664551</v>
+      </c>
+      <c r="D2788" t="n">
+        <v>27.54000091552734</v>
+      </c>
+      <c r="E2788" t="n">
+        <v>24.6200008392334</v>
+      </c>
+      <c r="F2788" t="n">
+        <v>27.46999931335449</v>
+      </c>
+      <c r="G2788" t="n">
+        <v>29.03857735344973</v>
+      </c>
+      <c r="H2788" t="n">
+        <v>29.12520571230051</v>
+      </c>
+      <c r="I2788" t="n">
+        <v>28.69408514492724</v>
+      </c>
+      <c r="J2788" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B2789" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C2789" t="n">
+        <v>26.73999977111816</v>
+      </c>
+      <c r="D2789" t="n">
+        <v>26.73999977111816</v>
+      </c>
+      <c r="E2789" t="n">
+        <v>21.80999946594238</v>
+      </c>
+      <c r="F2789" t="n">
+        <v>23.36000061035156</v>
+      </c>
+      <c r="G2789" t="n">
+        <v>27.41612685542168</v>
+      </c>
+      <c r="H2789" t="n">
+        <v>28.23825108123144</v>
+      </c>
+      <c r="I2789" t="n">
+        <v>28.26735838216118</v>
+      </c>
+      <c r="J2789" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B2790" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="C2790" t="n">
+        <v>23.54999923706055</v>
+      </c>
+      <c r="D2790" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E2790" t="n">
+        <v>23.54999923706055</v>
+      </c>
+      <c r="F2790" t="n">
+        <v>24.52000045776367</v>
+      </c>
+      <c r="G2790" t="n">
+        <v>26.58866217037654</v>
+      </c>
+      <c r="H2790" t="n">
+        <v>27.66621252377486</v>
+      </c>
+      <c r="I2790" t="n">
+        <v>27.96756974820938</v>
+      </c>
+      <c r="J2790" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B2791" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="C2791" t="n">
+        <v>24.84000015258789</v>
+      </c>
+      <c r="D2791" t="n">
+        <v>28.04999923706055</v>
+      </c>
+      <c r="E2791" t="n">
+        <v>24.47999954223633</v>
+      </c>
+      <c r="F2791" t="n">
+        <v>27.57999992370605</v>
+      </c>
+      <c r="G2791" t="n">
+        <v>26.87190152847068</v>
+      </c>
+      <c r="H2791" t="n">
+        <v>27.6529490468412</v>
+      </c>
+      <c r="I2791" t="n">
+        <v>27.93656416224912</v>
+      </c>
+      <c r="J2791" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B2792" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="C2792" t="n">
+        <v>28.09000015258789</v>
+      </c>
+      <c r="D2792" t="n">
+        <v>29.8799991607666</v>
+      </c>
+      <c r="E2792" t="n">
+        <v>27.45000076293945</v>
+      </c>
+      <c r="F2792" t="n">
+        <v>29.78000068664551</v>
+      </c>
+      <c r="G2792" t="n">
+        <v>27.70278700223492</v>
+      </c>
+      <c r="H2792" t="n">
+        <v>27.98018776065725</v>
+      </c>
+      <c r="I2792" t="n">
+        <v>28.08403908420083</v>
+      </c>
+      <c r="J2792" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B2793" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="C2793" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2793" t="n">
+        <v>31.42000007629395</v>
+      </c>
+      <c r="E2793" t="n">
+        <v>25.19000053405762</v>
+      </c>
+      <c r="F2793" t="n">
+        <v>26.07999992370605</v>
+      </c>
+      <c r="G2793" t="n">
+        <v>27.23913355122667</v>
+      </c>
+      <c r="H2793" t="n">
+        <v>27.68785117035706</v>
+      </c>
+      <c r="I2793" t="n">
+        <v>27.92371595136125</v>
+      </c>
+      <c r="J2793" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B2794" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C2794" t="n">
+        <v>25.19000053405762</v>
+      </c>
+      <c r="D2794" t="n">
+        <v>25.34000015258789</v>
+      </c>
+      <c r="E2794" t="n">
+        <v>20.04000091552734</v>
+      </c>
+      <c r="F2794" t="n">
+        <v>20.09000015258789</v>
+      </c>
+      <c r="G2794" t="n">
+        <v>25.19652400875845</v>
+      </c>
+      <c r="H2794" t="n">
+        <v>26.51895101377719</v>
+      </c>
+      <c r="I2794" t="n">
+        <v>27.29701868745938</v>
+      </c>
+      <c r="J2794" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B2795" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="C2795" t="n">
+        <v>20.72999954223633</v>
+      </c>
+      <c r="D2795" t="n">
+        <v>21.65999984741211</v>
+      </c>
+      <c r="E2795" t="n">
+        <v>18.40999984741211</v>
+      </c>
+      <c r="F2795" t="n">
+        <v>19.1299991607666</v>
+      </c>
+      <c r="G2795" t="n">
+        <v>23.46323119504649</v>
+      </c>
+      <c r="H2795" t="n">
+        <v>25.3821891902371</v>
+      </c>
+      <c r="I2795" t="n">
+        <v>26.64365712532395</v>
+      </c>
+      <c r="J2795" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B2796" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="C2796" t="n">
+        <v>19.55999946594238</v>
+      </c>
+      <c r="D2796" t="n">
+        <v>20.92000007629395</v>
+      </c>
+      <c r="E2796" t="n">
+        <v>18.64999961853027</v>
+      </c>
+      <c r="F2796" t="n">
+        <v>19.82999992370605</v>
+      </c>
+      <c r="G2796" t="n">
+        <v>22.42516511752065</v>
+      </c>
+      <c r="H2796" t="n">
+        <v>24.5280062261554</v>
+      </c>
+      <c r="I2796" t="n">
+        <v>26.09856454919452</v>
+      </c>
+      <c r="J2796" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B2797" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C2797" t="n">
+        <v>19.20000076293945</v>
+      </c>
+      <c r="D2797" t="n">
+        <v>19.57999992370605</v>
+      </c>
+      <c r="E2797" t="n">
+        <v>17.35000038146973</v>
+      </c>
+      <c r="F2797" t="n">
+        <v>18.72999954223633</v>
+      </c>
+      <c r="G2797" t="n">
+        <v>21.36940352458227</v>
+      </c>
+      <c r="H2797" t="n">
+        <v>23.63600519786016</v>
+      </c>
+      <c r="I2797" t="n">
+        <v>25.50907934863787</v>
+      </c>
+      <c r="J2797" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B2798" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="C2798" t="n">
+        <v>18.19000053405762</v>
+      </c>
+      <c r="D2798" t="n">
+        <v>18.54999923706055</v>
+      </c>
+      <c r="E2798" t="n">
+        <v>15.21000003814697</v>
+      </c>
+      <c r="F2798" t="n">
+        <v>15.88000011444092</v>
+      </c>
+      <c r="G2798" t="n">
+        <v>19.80100255025617</v>
+      </c>
+      <c r="H2798" t="n">
+        <v>22.44277364656489</v>
+      </c>
+      <c r="I2798" t="n">
+        <v>24.73875300990211</v>
+      </c>
+      <c r="J2798" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B2799" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="C2799" t="n">
+        <v>16.46999931335449</v>
+      </c>
+      <c r="D2799" t="n">
+        <v>17.77000045776367</v>
+      </c>
+      <c r="E2799" t="n">
+        <v>16.36000061035156</v>
+      </c>
+      <c r="F2799" t="n">
+        <v>17.30999946594238</v>
+      </c>
+      <c r="G2799" t="n">
+        <v>19.08928738330938</v>
+      </c>
+      <c r="H2799" t="n">
+        <v>21.65311608031528</v>
+      </c>
+      <c r="I2799" t="n">
+        <v>24.14445272638534</v>
+      </c>
+      <c r="J2799" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B2800" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="C2800" t="n">
+        <v>17.55999946594238</v>
+      </c>
+      <c r="D2800" t="n">
+        <v>19.42000007629395</v>
+      </c>
+      <c r="E2800" t="n">
+        <v>17.09000015258789</v>
+      </c>
+      <c r="F2800" t="n">
+        <v>18.94000053405762</v>
+      </c>
+      <c r="G2800" t="n">
+        <v>19.04663399780887</v>
+      </c>
+      <c r="H2800" t="n">
+        <v>21.23571368858333</v>
+      </c>
+      <c r="I2800" t="n">
+        <v>23.72809655099912</v>
+      </c>
+      <c r="J2800" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C2801" t="n">
+        <v>18.3799991607666</v>
+      </c>
+      <c r="D2801" t="n">
+        <v>19.02000045776367</v>
+      </c>
+      <c r="E2801" t="n">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="F2801" t="n">
+        <v>16.85000038146973</v>
+      </c>
+      <c r="G2801" t="n">
+        <v>19.04663399780887</v>
+      </c>
+      <c r="H2801" t="n">
+        <v>21.23571368858333</v>
+      </c>
+      <c r="I2801" t="n">
+        <v>23.72809655099912</v>
+      </c>
+      <c r="J2801" t="n">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
